--- a/MAR-2024/1303/Practice_ImageProcessing.xlsx
+++ b/MAR-2024/1303/Practice_ImageProcessing.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\soc_sw\TTP Training Plan\soc\Image_Processing\Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Ban Vien Corporation\My folder\MAR-2024\1303\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A567B8C1-9CD7-4B40-9536-4CF06EA25232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="2" r:id="rId1"/>
     <sheet name="Practice Image Processing" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t>Exercise</t>
   </si>
@@ -206,11 +206,32 @@
     <t>Bac Huynh
 Dec/03/2022</t>
   </si>
+  <si>
+    <t>Dưới đây là hướng dẫn chi tiết cho yêu cầu của bạn:
+Tạo hình ảnh PNG/JPG bằng ứng dụng Paint trên Hệ điều hành Windows:
+Mở ứng dụng Paint.
+Chọn ‘File’ -&gt; ‘New’ để tạo hình ảnh mới.
+Đặt độ phân giải của hình ảnh là 3856x1964.
+Vẽ 6 đường thẳng, 5 hình chữ nhật, 4 hình tam giác và 3 hình tròn.
+Lưu hình ảnh dưới dạng PNG hoặc JPG.
+Tải hình ảnh PNG/JPG từ internet với độ phân giải lớn hơn 3840x2160 và nhỏ hơn 4096x2160:
+Tìm hình ảnh phù hợp trên internet và tải xuống.
+Nếu cần, bạn có thể sử dụng công cụ chỉnh sửa hình ảnh để cắt hình ảnh về độ phân giải mong muốn.
+Sử dụng lệnh ffmpeg để chuyển đổi hình ảnh PNG/JPG (hình ảnh trong yêu cầu 1) sang định dạng NV16:
+Đầu tiên, chuyển đổi hình ảnh PNG sang định dạng YUV bằng lệnh ffmpeg.
+Sau đó, sử dụng ngôn ngữ C để chuyển đổi hình ảnh từ định dạng YUV sang định dạng NV16.
+Sử dụng lệnh ffmpeg để chuyển đổi hình ảnh PNG/JPG (hình ảnh trong yêu cầu 2) sang định dạng RGB24:
+Sử dụng lệnh ffmpeg để chuyển đổi hình ảnh từ định dạng PNG/JPG sang định dạng RGB24.
+Kết quả cuối cùng sẽ là hai hình ảnh với định dạng NV16 và RGB24. Bạn cũng sẽ có khả năng tạo hình ảnh giả, chuyển đổi hình ảnh sang định dạng khác, sử dụng lệnh ffmpeg ở cấp độ cơ bản và xem hình ảnh định dạng YUV/RGB trong các công cụ/ứng dụng. Chúc bạn thành công! &lt;br&gt; Lưu ý: Đây chỉ là hướng dẫn tổng quát, bạn cần kiểm tra cú pháp và tham số cụ thể của lệnh ffmpeg và các công cụ khác mà bạn sử dụng.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -274,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,6 +439,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,11 +727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B79C1D-C9DB-4301-A65D-480A1C3B7B08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,20 +816,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="101.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -813,7 +846,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -827,8 +860,11 @@
         <v>15</v>
       </c>
       <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="F2" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -850,4 +886,287 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="23">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="23">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="23">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="23">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="23">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="23">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="23">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>